--- a/medium-and-heavy-duty-vehicles-2023-07-17.xlsx
+++ b/medium-and-heavy-duty-vehicles-2023-07-17.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thedevelopmentmanagertdm365-my.sharepoint.com/personal/andy_brown_365_tdm_co_uk/Documents/Obsidian_tdm/TDM/Standards/Data-Analyst-ST0118v1.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy.JIVEDIVE.000\Downloads\L4DA_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99E86B2B-5CDB-44A2-9509-B7FF047E2619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709892C-BE35-43D9-A815-CA0476F49A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="medium-and-heavy-duty-vehicles-" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1902,18 +1902,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I286" totalsRowShown="0">
-  <autoFilter ref="A1:I286"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I286" totalsRowShown="0">
+  <autoFilter ref="A1:I286" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Vehicle ID"/>
-    <tableColumn id="2" name="Model"/>
-    <tableColumn id="3" name="Manufacturer"/>
-    <tableColumn id="4" name="Transmission Make"/>
-    <tableColumn id="5" name="Num Passengers"/>
-    <tableColumn id="6" name="Power System Ids"/>
-    <tableColumn id="7" name="Fuels"/>
-    <tableColumn id="8" name="Application Categories"/>
-    <tableColumn id="9" name="Transmission Types"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vehicle ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Model"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Manufacturer"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Transmission Make"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Num Passengers"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Power System Ids"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Fuels"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Application Categories"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Transmission Types"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2215,7 +2215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
